--- a/data/info_hs.xlsx
+++ b/data/info_hs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pythonProject\quanlytruonghoc_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\quanlynhansu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA40FDA-94EA-461A-93D6-D0033F7A1975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360534F8-371C-4CF7-8E85-63745A7BAA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
   <si>
     <t>HỌ VÀ TÊN</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>Sê Nhắc</t>
-  </si>
-  <si>
-    <t>02633.506.924</t>
   </si>
   <si>
     <t>21/02/2019</t>
@@ -374,6 +371,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;0&quot;#"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,15 +530,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -564,9 +559,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -576,9 +568,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,24 +577,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -624,9 +598,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -644,6 +615,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,728 +960,728 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="38" customFormat="1" ht="28" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>6</v>
+      <c r="C2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="36">
+        <v>43775</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="29">
+        <v>1319027148</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="29">
+        <v>1080046867</v>
+      </c>
+      <c r="N2" s="32">
+        <v>943108127</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C3" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="1">
-        <v>43775</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3">
-        <v>1319027148</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1080046867</v>
-      </c>
-      <c r="N2" s="2">
-        <v>943108127</v>
+      <c r="G3" s="29">
+        <v>68319004493</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="29">
+        <v>68195003930</v>
+      </c>
+      <c r="N3" s="32">
+        <v>369085268</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C4" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="29">
+        <v>68219010383</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="29">
+        <v>49191006461</v>
+      </c>
+      <c r="N4" s="32">
+        <v>327345845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="29">
+        <v>68219003176</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="29">
+        <v>11900453558</v>
+      </c>
+      <c r="N5" s="32">
+        <v>972282708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="29">
+        <v>68219003997</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="29">
+        <v>60091015331</v>
+      </c>
+      <c r="N6" s="32">
+        <v>383050052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3">
-        <v>68319004493</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="G7" s="29">
+        <v>68319001500</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="29">
+        <v>36190017299</v>
+      </c>
+      <c r="N7" s="33">
+        <v>984292094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="38">
+        <v>43777</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="29">
+        <v>68319003177</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="29">
+        <v>40199021238</v>
+      </c>
+      <c r="N8" s="34">
+        <v>792281703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1219027433</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="29">
+        <v>19179013442</v>
+      </c>
+      <c r="N9" s="32">
+        <v>2633506924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="29">
+        <v>68319013032</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="29">
+        <v>68184002360</v>
+      </c>
+      <c r="N10" s="32">
+        <v>917179787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="36">
+        <v>43778</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="29">
+        <v>68319000536</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="3">
-        <v>68195003930</v>
-      </c>
-      <c r="N3" s="2">
-        <v>369085268</v>
+      <c r="J11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="29">
+        <v>1184045829</v>
+      </c>
+      <c r="N11" s="33">
+        <v>965974333</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="30">
+        <v>68319002166</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="35">
+        <v>52191014281</v>
+      </c>
+      <c r="N12" s="31">
+        <v>986955026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
-        <v>68219010383</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="G13" s="29">
+        <v>68220004411</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="29">
+        <v>68102004934</v>
+      </c>
+      <c r="N13" s="32">
+        <v>868207992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="31">
+        <v>68194000913</v>
+      </c>
+      <c r="N14" s="31">
+        <v>397084438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="40">
+        <v>44018</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="29">
+        <v>68220006200</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="29">
+        <v>68195009095</v>
+      </c>
+      <c r="N15" s="32">
+        <v>972237797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="29">
+        <v>68320005857</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="3">
-        <v>49191006461</v>
-      </c>
-      <c r="N4" s="2">
-        <v>327345845</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3">
-        <v>68219003176</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="3">
-        <v>11900453558</v>
-      </c>
-      <c r="N5" s="2">
-        <v>972282708</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>68219003997</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="3">
-        <v>60091015331</v>
-      </c>
-      <c r="N6" s="2">
-        <v>383050052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3">
-        <v>68319001500</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="3">
-        <v>36190017299</v>
-      </c>
-      <c r="N7" s="25">
-        <v>984292094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="12">
-        <v>43777</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
-        <v>68319003177</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="3">
-        <v>40199021238</v>
-      </c>
-      <c r="N8" s="16">
-        <v>792281703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1219027433</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="3">
-        <v>19179013442</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3">
-        <v>68319013032</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="3">
-        <v>68184002360</v>
-      </c>
-      <c r="N10" s="2">
-        <v>917179787</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43778</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3">
-        <v>68319000536</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1184045829</v>
-      </c>
-      <c r="N11" s="25">
-        <v>965974333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="32">
-        <v>68319002166</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="20">
-        <v>52191014281</v>
-      </c>
-      <c r="N12" s="17">
-        <v>986955026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3">
-        <v>68220004411</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="3">
-        <v>68102004934</v>
-      </c>
-      <c r="N13" s="2">
-        <v>868207992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="17">
-        <v>68194000913</v>
-      </c>
-      <c r="N14" s="17">
-        <v>397084438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="24">
-        <v>44018</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>68220006200</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="3">
-        <v>68195009095</v>
-      </c>
-      <c r="N15" s="2">
-        <v>972237797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3">
-        <v>68320005857</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="M16" s="29">
         <v>40180023812</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="33">
         <v>914248600</v>
       </c>
     </row>
